--- a/doc/04_外部設計書_川崎.java.xlsx
+++ b/doc/04_外部設計書_川崎.java.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\E-3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAD0365-FD43-4494-818B-196D6491436C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FD09FC-239D-4AD1-9D63-735C0C578A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="トップページ" sheetId="9" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="300">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1879,10 +1879,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>HABbtn</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
     <t>スケジュール画面に遷移する</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
@@ -1894,10 +1890,6 @@
   </si>
   <si>
     <t>スケジュールボタン</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>Sbtn</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -2296,6 +2288,211 @@
     <t>cost</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>画像を貼り付ける。</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>当日スケジュールをテーブルから取得する。</t>
+    <rPh sb="0" eb="2">
+      <t>トウジツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>目標、家計簿の現在の残高、貯金目標、使えるお金をテーブルから取得して表示する。</t>
+    <rPh sb="3" eb="5">
+      <t>カケイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ボ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ザンダカ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>チョキンモクヒョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>h_btn</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>s_btn</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>img1</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>img2</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>画像1</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>画像2</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>直近スケジュール</t>
+    <rPh sb="0" eb="2">
+      <t>チョッキン</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>schedule</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Lable</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>現在残高</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザンダカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>balance</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Label</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>目標</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>reason</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>貯金目安</t>
+    <rPh sb="0" eb="4">
+      <t>チョキンメヤス</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>使用可能金額</t>
+    <rPh sb="0" eb="6">
+      <t>シヨウカノウキンガク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>savings</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>usable</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>scheduleテーブルからデータを取得する。(全カラム)</t>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>userテーブルのreasonからデータを取得して表示する。</t>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>userテーブルのsalaryからデータを取得して表示する。</t>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>3つのテーブルからデータを取得する必要がある。</t>
+    <rPh sb="13" eb="15">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
@@ -2304,7 +2501,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2389,6 +2586,14 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202124"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2722,7 +2927,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2869,6 +3074,13 @@
     </xf>
     <xf numFmtId="56" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3250,7 +3462,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4246331" y="3748368"/>
+          <a:off x="4282050" y="3748368"/>
           <a:ext cx="256160" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3284,7 +3496,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>5</a:t>
+            <a:t>7</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -3303,7 +3515,7 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:ext cx="327654" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="テキスト ボックス 7">
@@ -3317,8 +3529,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4258235" y="5536406"/>
-          <a:ext cx="256160" cy="264560"/>
+          <a:off x="4293954" y="5536406"/>
+          <a:ext cx="327654" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3351,7 +3563,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>6</a:t>
+            <a:t>10</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -3442,7 +3654,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1750779" y="3679032"/>
+          <a:off x="1765066" y="3679032"/>
           <a:ext cx="256160" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3476,7 +3688,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>7</a:t>
+            <a:t>5</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -3558,7 +3770,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>195823</xdr:colOff>
+      <xdr:colOff>186298</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>188119</xdr:rowOff>
     </xdr:from>
@@ -3576,7 +3788,74 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4303479" y="3236119"/>
+          <a:off x="4329673" y="3236119"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>145817</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20472868-2D7D-4A76-889A-F870813DD9D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4289192" y="4924426"/>
           <a:ext cx="256160" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3611,73 +3890,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>9</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>145817</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="327654" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20472868-2D7D-4A76-889A-F870813DD9D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4253473" y="4924426"/>
-          <a:ext cx="327654" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>10</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -8904,8 +9116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CCBD38-FD47-4D7B-9ED6-BF594D8B0C4B}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" topLeftCell="B76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD89" sqref="AD89:AD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8932,7 +9144,7 @@
       <c r="L1" s="37"/>
       <c r="M1" s="37"/>
       <c r="N1" s="37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
@@ -8947,7 +9159,7 @@
       </c>
       <c r="X1" s="37"/>
       <c r="Y1" s="37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Z1" s="37"/>
       <c r="AA1" s="37"/>
@@ -9036,7 +9248,7 @@
       <c r="L3" s="39"/>
       <c r="M3" s="40"/>
       <c r="N3" s="41" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O3" s="42"/>
       <c r="P3" s="42"/>
@@ -10582,7 +10794,7 @@
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -10759,7 +10971,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -10847,7 +11059,7 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="18"/>
@@ -10933,7 +11145,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="18"/>
@@ -11019,7 +11231,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="E52" s="18"/>
       <c r="F52" s="18"/>
@@ -11105,7 +11317,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
@@ -11187,6 +11399,12 @@
     <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
+      <c r="C56" s="23">
+        <v>7</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -11267,6 +11485,12 @@
     <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
+      <c r="C58" s="23">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -11347,6 +11571,12 @@
     <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
+      <c r="C60" s="23">
+        <v>9</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -11427,6 +11657,12 @@
     <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
+      <c r="C62" s="23">
+        <v>10</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
@@ -12307,13 +12543,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c r="G82" s="12"/>
       <c r="H82" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="14"/>
@@ -12341,7 +12577,7 @@
       <c r="AB82" s="14"/>
       <c r="AC82" s="16"/>
       <c r="AD82" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AE82" s="14"/>
       <c r="AF82" s="14"/>
@@ -12360,20 +12596,20 @@
       <c r="C83" s="12">
         <v>5</v>
       </c>
-      <c r="D83" s="13" t="s">
-        <v>233</v>
+      <c r="D83" s="53" t="s">
+        <v>276</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c r="G83" s="12"/>
-      <c r="H83" s="13" t="s">
-        <v>232</v>
+      <c r="H83" s="53" t="s">
+        <v>278</v>
       </c>
       <c r="I83" s="15"/>
       <c r="J83" s="14"/>
       <c r="K83" s="16"/>
-      <c r="L83" s="13" t="s">
-        <v>21</v>
+      <c r="L83" s="53" t="s">
+        <v>280</v>
       </c>
       <c r="M83" s="14"/>
       <c r="N83" s="16"/>
@@ -12392,8 +12628,8 @@
       <c r="AA83" s="13"/>
       <c r="AB83" s="14"/>
       <c r="AC83" s="16"/>
-      <c r="AD83" s="13" t="s">
-        <v>231</v>
+      <c r="AD83" s="53" t="s">
+        <v>271</v>
       </c>
       <c r="AE83" s="14"/>
       <c r="AF83" s="14"/>
@@ -12412,24 +12648,26 @@
       <c r="C84" s="12">
         <v>6</v>
       </c>
-      <c r="D84" s="13" t="s">
-        <v>230</v>
+      <c r="D84" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
       <c r="G84" s="12"/>
-      <c r="H84" s="13" t="s">
-        <v>229</v>
+      <c r="H84" s="1" t="s">
+        <v>281</v>
       </c>
       <c r="I84" s="15"/>
       <c r="J84" s="14"/>
       <c r="K84" s="16"/>
-      <c r="L84" s="13" t="s">
-        <v>21</v>
+      <c r="L84" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="M84" s="14"/>
       <c r="N84" s="16"/>
-      <c r="O84" s="13"/>
+      <c r="O84" s="13" t="s">
+        <v>193</v>
+      </c>
       <c r="P84" s="14"/>
       <c r="Q84" s="14"/>
       <c r="R84" s="16"/>
@@ -12437,15 +12675,19 @@
       <c r="T84" s="16"/>
       <c r="U84" s="13"/>
       <c r="V84" s="16"/>
-      <c r="W84" s="13"/>
+      <c r="W84" s="13" t="s">
+        <v>282</v>
+      </c>
       <c r="X84" s="14"/>
       <c r="Y84" s="14"/>
       <c r="Z84" s="16"/>
-      <c r="AA84" s="13"/>
+      <c r="AA84" s="13" t="s">
+        <v>297</v>
+      </c>
       <c r="AB84" s="14"/>
       <c r="AC84" s="16"/>
       <c r="AD84" s="13" t="s">
-        <v>228</v>
+        <v>295</v>
       </c>
       <c r="AE84" s="14"/>
       <c r="AF84" s="14"/>
@@ -12461,16 +12703,24 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="11"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="13"/>
+      <c r="C85" s="12">
+        <v>7</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>275</v>
+      </c>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
       <c r="G85" s="12"/>
-      <c r="H85" s="13"/>
+      <c r="H85" s="13" t="s">
+        <v>231</v>
+      </c>
       <c r="I85" s="15"/>
       <c r="J85" s="14"/>
       <c r="K85" s="16"/>
-      <c r="L85" s="13"/>
+      <c r="L85" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="M85" s="14"/>
       <c r="N85" s="16"/>
       <c r="O85" s="13"/>
@@ -12488,7 +12738,9 @@
       <c r="AA85" s="13"/>
       <c r="AB85" s="14"/>
       <c r="AC85" s="16"/>
-      <c r="AD85" s="13"/>
+      <c r="AD85" s="13" t="s">
+        <v>230</v>
+      </c>
       <c r="AE85" s="14"/>
       <c r="AF85" s="14"/>
       <c r="AG85" s="14"/>
@@ -12503,16 +12755,24 @@
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="11"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="13"/>
+      <c r="C86" s="12">
+        <v>8</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>277</v>
+      </c>
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
       <c r="G86" s="12"/>
-      <c r="H86" s="13"/>
+      <c r="H86" s="13" t="s">
+        <v>279</v>
+      </c>
       <c r="I86" s="15"/>
       <c r="J86" s="14"/>
       <c r="K86" s="16"/>
-      <c r="L86" s="13"/>
+      <c r="L86" s="13" t="s">
+        <v>280</v>
+      </c>
       <c r="M86" s="14"/>
       <c r="N86" s="16"/>
       <c r="O86" s="13"/>
@@ -12530,7 +12790,9 @@
       <c r="AA86" s="13"/>
       <c r="AB86" s="14"/>
       <c r="AC86" s="16"/>
-      <c r="AD86" s="13"/>
+      <c r="AD86" s="13" t="s">
+        <v>271</v>
+      </c>
       <c r="AE86" s="14"/>
       <c r="AF86" s="14"/>
       <c r="AG86" s="14"/>
@@ -12545,19 +12807,29 @@
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="11"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="13"/>
+      <c r="C87" s="12">
+        <v>9</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
       <c r="G87" s="12"/>
-      <c r="H87" s="13"/>
+      <c r="H87" s="13" t="s">
+        <v>288</v>
+      </c>
       <c r="I87" s="15"/>
       <c r="J87" s="14"/>
       <c r="K87" s="16"/>
-      <c r="L87" s="13"/>
+      <c r="L87" s="13" t="s">
+        <v>287</v>
+      </c>
       <c r="M87" s="14"/>
       <c r="N87" s="16"/>
-      <c r="O87" s="13"/>
+      <c r="O87" s="13" t="s">
+        <v>193</v>
+      </c>
       <c r="P87" s="14"/>
       <c r="Q87" s="14"/>
       <c r="R87" s="16"/>
@@ -12565,14 +12837,20 @@
       <c r="T87" s="16"/>
       <c r="U87" s="13"/>
       <c r="V87" s="16"/>
-      <c r="W87" s="13"/>
+      <c r="W87" s="13" t="s">
+        <v>294</v>
+      </c>
       <c r="X87" s="14"/>
       <c r="Y87" s="14"/>
       <c r="Z87" s="16"/>
-      <c r="AA87" s="13"/>
+      <c r="AA87" s="13" t="s">
+        <v>289</v>
+      </c>
       <c r="AB87" s="14"/>
       <c r="AC87" s="16"/>
-      <c r="AD87" s="13"/>
+      <c r="AD87" s="53" t="s">
+        <v>296</v>
+      </c>
       <c r="AE87" s="14"/>
       <c r="AF87" s="14"/>
       <c r="AG87" s="14"/>
@@ -12587,19 +12865,29 @@
     <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="11"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="13"/>
+      <c r="C88" s="12">
+        <v>10</v>
+      </c>
+      <c r="D88" s="54" t="s">
+        <v>286</v>
+      </c>
       <c r="E88" s="14"/>
       <c r="F88" s="14"/>
       <c r="G88" s="12"/>
-      <c r="H88" s="13"/>
+      <c r="H88" s="13" t="s">
+        <v>285</v>
+      </c>
       <c r="I88" s="15"/>
       <c r="J88" s="14"/>
       <c r="K88" s="16"/>
-      <c r="L88" s="13"/>
+      <c r="L88" s="13" t="s">
+        <v>287</v>
+      </c>
       <c r="M88" s="14"/>
       <c r="N88" s="16"/>
-      <c r="O88" s="13"/>
+      <c r="O88" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="P88" s="14"/>
       <c r="Q88" s="14"/>
       <c r="R88" s="16"/>
@@ -12607,14 +12895,20 @@
       <c r="T88" s="16"/>
       <c r="U88" s="13"/>
       <c r="V88" s="16"/>
-      <c r="W88" s="13"/>
+      <c r="W88" s="13" t="s">
+        <v>294</v>
+      </c>
       <c r="X88" s="14"/>
       <c r="Y88" s="14"/>
       <c r="Z88" s="16"/>
-      <c r="AA88" s="13"/>
+      <c r="AA88" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="AB88" s="14"/>
       <c r="AC88" s="16"/>
-      <c r="AD88" s="13"/>
+      <c r="AD88" s="53" t="s">
+        <v>298</v>
+      </c>
       <c r="AE88" s="14"/>
       <c r="AF88" s="14"/>
       <c r="AG88" s="14"/>
@@ -12629,19 +12923,29 @@
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="11"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
+      <c r="C89" s="12">
+        <v>11</v>
+      </c>
+      <c r="D89" s="55" t="s">
+        <v>292</v>
+      </c>
       <c r="E89" s="14"/>
       <c r="F89" s="14"/>
       <c r="G89" s="12"/>
-      <c r="H89" s="13"/>
+      <c r="H89" s="13" t="s">
+        <v>290</v>
+      </c>
       <c r="I89" s="15"/>
       <c r="J89" s="14"/>
       <c r="K89" s="16"/>
-      <c r="L89" s="13"/>
+      <c r="L89" s="13" t="s">
+        <v>287</v>
+      </c>
       <c r="M89" s="14"/>
       <c r="N89" s="16"/>
-      <c r="O89" s="13"/>
+      <c r="O89" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="P89" s="14"/>
       <c r="Q89" s="14"/>
       <c r="R89" s="16"/>
@@ -12656,7 +12960,9 @@
       <c r="AA89" s="13"/>
       <c r="AB89" s="14"/>
       <c r="AC89" s="16"/>
-      <c r="AD89" s="13"/>
+      <c r="AD89" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE89" s="14"/>
       <c r="AF89" s="14"/>
       <c r="AG89" s="14"/>
@@ -12671,19 +12977,29 @@
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="11"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="13"/>
+      <c r="C90" s="12">
+        <v>12</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>293</v>
+      </c>
       <c r="E90" s="14"/>
       <c r="F90" s="14"/>
       <c r="G90" s="12"/>
-      <c r="H90" s="13"/>
+      <c r="H90" s="13" t="s">
+        <v>291</v>
+      </c>
       <c r="I90" s="15"/>
       <c r="J90" s="14"/>
       <c r="K90" s="16"/>
-      <c r="L90" s="13"/>
+      <c r="L90" s="13" t="s">
+        <v>287</v>
+      </c>
       <c r="M90" s="14"/>
       <c r="N90" s="16"/>
-      <c r="O90" s="13"/>
+      <c r="O90" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="P90" s="14"/>
       <c r="Q90" s="14"/>
       <c r="R90" s="16"/>
@@ -12698,7 +13014,9 @@
       <c r="AA90" s="13"/>
       <c r="AB90" s="14"/>
       <c r="AC90" s="16"/>
-      <c r="AD90" s="13"/>
+      <c r="AD90" s="13" t="s">
+        <v>299</v>
+      </c>
       <c r="AE90" s="14"/>
       <c r="AF90" s="14"/>
       <c r="AG90" s="14"/>
@@ -12713,16 +13031,24 @@
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="11"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="13"/>
+      <c r="C91" s="12">
+        <v>13</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>274</v>
+      </c>
       <c r="E91" s="14"/>
       <c r="F91" s="14"/>
       <c r="G91" s="12"/>
-      <c r="H91" s="13"/>
+      <c r="H91" s="13" t="s">
+        <v>229</v>
+      </c>
       <c r="I91" s="15"/>
       <c r="J91" s="14"/>
       <c r="K91" s="16"/>
-      <c r="L91" s="13"/>
+      <c r="L91" s="13" t="s">
+        <v>21</v>
+      </c>
       <c r="M91" s="14"/>
       <c r="N91" s="16"/>
       <c r="O91" s="13"/>
@@ -12740,7 +13066,9 @@
       <c r="AA91" s="13"/>
       <c r="AB91" s="14"/>
       <c r="AC91" s="16"/>
-      <c r="AD91" s="13"/>
+      <c r="AD91" s="13" t="s">
+        <v>228</v>
+      </c>
       <c r="AE91" s="14"/>
       <c r="AF91" s="14"/>
       <c r="AG91" s="14"/>
@@ -13540,7 +13868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A082685F-6336-44D4-BDE6-A204FA804884}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -15685,7 +16013,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E53" s="18"/>
       <c r="F53" s="18"/>
@@ -15728,7 +16056,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="D54" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
@@ -16106,7 +16434,7 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="D63" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E63" s="18"/>
       <c r="F63" s="18"/>
@@ -16232,7 +16560,7 @@
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="D66" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
@@ -20591,7 +20919,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="D58" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
@@ -21649,7 +21977,7 @@
       <c r="F82" s="14"/>
       <c r="G82" s="12"/>
       <c r="H82" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="14"/>
@@ -21747,7 +22075,7 @@
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="14"/>
@@ -21799,7 +22127,7 @@
       </c>
       <c r="C85" s="12"/>
       <c r="D85" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="14"/>
@@ -22893,7 +23221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0372F4C3-06A1-4E0D-9251-9CF60541D04F}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -27553,7 +27881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF91466-A475-47F4-BB97-B5988D6FA63E}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -27581,7 +27909,7 @@
       <c r="L1" s="37"/>
       <c r="M1" s="37"/>
       <c r="N1" s="37" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
@@ -27596,7 +27924,7 @@
       </c>
       <c r="X1" s="37"/>
       <c r="Y1" s="37" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Z1" s="37"/>
       <c r="AA1" s="37"/>
@@ -29312,7 +29640,7 @@
     <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -29356,7 +29684,7 @@
     <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="25" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -29484,7 +29812,7 @@
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -29611,7 +29939,7 @@
     <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
@@ -29737,7 +30065,7 @@
     <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E54" s="18"/>
       <c r="F54" s="18"/>
@@ -29780,7 +30108,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="18"/>
@@ -29862,7 +30190,7 @@
     <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
@@ -29905,7 +30233,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E58" s="18"/>
       <c r="F58" s="18"/>
@@ -29987,7 +30315,7 @@
     <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="18"/>
@@ -30030,7 +30358,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
@@ -30792,24 +31120,24 @@
         <v>1</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c r="G79" s="12"/>
       <c r="H79" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I79" s="15"/>
       <c r="J79" s="14"/>
       <c r="K79" s="16"/>
       <c r="L79" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M79" s="14"/>
       <c r="N79" s="16"/>
       <c r="O79" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P79" s="14"/>
       <c r="Q79" s="14"/>
@@ -30844,24 +31172,24 @@
         <v>2</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="14"/>
       <c r="G80" s="12"/>
       <c r="H80" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="14"/>
       <c r="K80" s="16"/>
       <c r="L80" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M80" s="14"/>
       <c r="N80" s="16"/>
       <c r="O80" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P80" s="14"/>
       <c r="Q80" s="14"/>
@@ -31002,7 +31330,7 @@
       <c r="F83" s="14"/>
       <c r="G83" s="12"/>
       <c r="H83" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I83" s="15"/>
       <c r="J83" s="14"/>
@@ -32165,7 +32493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9790EB81-1383-47B0-A5DD-9DEAF4994906}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>

--- a/doc/04_外部設計書_川崎.java.xlsx
+++ b/doc/04_外部設計書_川崎.java.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\E-3\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FD09FC-239D-4AD1-9D63-735C0C578A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4129F63-D9D9-4495-B2C0-0E4709CD5B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="トップページ" sheetId="9" r:id="rId1"/>
@@ -3000,6 +3000,13 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3075,13 +3082,6 @@
     <xf numFmtId="56" fontId="8" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3104,25 +3104,30 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>184818</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="6213740" cy="5950324"/>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>141161</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="16" name="図 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6186876B-BF6A-4B06-90F6-158232336E44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9044222-3DCF-BC15-0785-4F69061C3C54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3133,28 +3138,39 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1013493" y="991720"/>
-          <a:ext cx="6213740" cy="5950324"/>
+          <a:off x="895350" y="885825"/>
+          <a:ext cx="5753100" cy="6684836"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>268940</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>135590</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>126627</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="256160" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -3170,7 +3186,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3307415" y="1174377"/>
+          <a:off x="964265" y="1079127"/>
           <a:ext cx="256160" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3218,10 +3234,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>23532</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>30256</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="256160" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -3237,7 +3253,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6233832" y="1211356"/>
+          <a:off x="5824257" y="982756"/>
           <a:ext cx="256160" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3283,164 +3299,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>78442</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>67236</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97235E84-654B-4531-8D0F-CFEC585348A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1735792" y="1576668"/>
-          <a:ext cx="265019" cy="193861"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>88751</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6301BF5E-7A9C-4D75-A0ED-5B3CF9827E91}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1425948" y="2146151"/>
-          <a:ext cx="253814" cy="254149"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
@@ -3510,10 +3368,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>150579</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>245829</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>30956</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="327654" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -3529,7 +3387,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4293954" y="5536406"/>
+          <a:off x="3836754" y="5364956"/>
           <a:ext cx="327654" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3570,64 +3428,6 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>154781</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="878959" cy="275717"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="テキスト ボックス 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C3B41E-F358-4E85-43EB-A714966BD7CB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4262437" y="1702593"/>
-          <a:ext cx="878959" cy="275717"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザ更新</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3837,9 +3637,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>145817</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:colOff>212492</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="256160" cy="264560"/>
     <xdr:sp macro="" textlink="">
@@ -3855,7 +3655,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4289192" y="4924426"/>
+          <a:off x="4355867" y="5162551"/>
           <a:ext cx="256160" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3890,6 +3690,341 @@
               </a:solidFill>
             </a:rPr>
             <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>118782</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>154081</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104E5CE1-7770-4235-8EBC-FB9779AB390B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1223682" y="1487581"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642EAE93-2D0A-4EC6-A875-73DFF5E7242A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1257300" y="2228850"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>122004</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>183356</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE041606-531A-45AA-B698-E0F81FE340A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3989154" y="5517356"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>274404</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>145256</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC6986A-D0B7-427B-811B-16D2EC4AC7C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4141554" y="5669756"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>55329</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D1B309-D910-4A3C-BAFB-D8519658DCFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3922479" y="6155531"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>13</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
             <a:solidFill>
@@ -9116,8 +9251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CCBD38-FD47-4D7B-9ED6-BF594D8B0C4B}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD89" sqref="AD89:AD90"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9126,156 +9261,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>242</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="45"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="48"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="50">
         <v>44719</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="38" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41" t="s">
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="46"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -9372,7 +9507,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -12596,19 +12731,19 @@
       <c r="C83" s="12">
         <v>5</v>
       </c>
-      <c r="D83" s="53" t="s">
+      <c r="D83" s="28" t="s">
         <v>276</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="14"/>
       <c r="G83" s="12"/>
-      <c r="H83" s="53" t="s">
+      <c r="H83" s="28" t="s">
         <v>278</v>
       </c>
       <c r="I83" s="15"/>
       <c r="J83" s="14"/>
       <c r="K83" s="16"/>
-      <c r="L83" s="53" t="s">
+      <c r="L83" s="28" t="s">
         <v>280</v>
       </c>
       <c r="M83" s="14"/>
@@ -12628,7 +12763,7 @@
       <c r="AA83" s="13"/>
       <c r="AB83" s="14"/>
       <c r="AC83" s="16"/>
-      <c r="AD83" s="53" t="s">
+      <c r="AD83" s="28" t="s">
         <v>271</v>
       </c>
       <c r="AE83" s="14"/>
@@ -12848,7 +12983,7 @@
       </c>
       <c r="AB87" s="14"/>
       <c r="AC87" s="16"/>
-      <c r="AD87" s="53" t="s">
+      <c r="AD87" s="28" t="s">
         <v>296</v>
       </c>
       <c r="AE87" s="14"/>
@@ -12868,7 +13003,7 @@
       <c r="C88" s="12">
         <v>10</v>
       </c>
-      <c r="D88" s="54" t="s">
+      <c r="D88" s="29" t="s">
         <v>286</v>
       </c>
       <c r="E88" s="14"/>
@@ -12906,7 +13041,7 @@
       </c>
       <c r="AB88" s="14"/>
       <c r="AC88" s="16"/>
-      <c r="AD88" s="53" t="s">
+      <c r="AD88" s="28" t="s">
         <v>298</v>
       </c>
       <c r="AE88" s="14"/>
@@ -12926,7 +13061,7 @@
       <c r="C89" s="12">
         <v>11</v>
       </c>
-      <c r="D89" s="55" t="s">
+      <c r="D89" s="30" t="s">
         <v>292</v>
       </c>
       <c r="E89" s="14"/>
@@ -13878,154 +14013,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="45"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="48"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="50">
         <v>44719</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="38" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="46"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -18570,154 +18705,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="45"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="48"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="50">
         <v>44719</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="38" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="46"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -23233,154 +23368,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="45"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="48"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="50">
         <v>44719</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="38" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="46"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -27891,152 +28026,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40" t="s">
         <v>260</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="45"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="48"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="38" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="46"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -32503,154 +32638,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="45"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="48"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="52">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="55">
         <v>44719</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="38" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="46"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -37156,154 +37291,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="45"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="48"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="50">
         <v>44719</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="38" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="46"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -41737,154 +41872,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="45"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="48"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="47">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="50">
         <v>44719</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="38" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="46"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -46389,154 +46524,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="37" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37" t="s">
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37" t="s">
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="45"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="47"/>
+      <c r="AJ1" s="47"/>
+      <c r="AK1" s="47"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
+      <c r="AN1" s="48"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="46" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46" t="s">
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="52">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="55">
         <v>44719</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="48" t="s">
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="49"/>
+      <c r="AB2" s="49"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="49"/>
+      <c r="AE2" s="49"/>
+      <c r="AF2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="38" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-      <c r="AK3" s="42"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="43"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="46"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>

--- a/doc/04_外部設計書_川崎.java.xlsx
+++ b/doc/04_外部設計書_川崎.java.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4129F63-D9D9-4495-B2C0-0E4709CD5B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699615D4-09E6-4A68-9D2C-710A89A85B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5278,8 +5278,8 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
@@ -5297,7 +5297,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2943225" y="4552950"/>
+          <a:off x="3429000" y="5048250"/>
           <a:ext cx="314638" cy="405432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5350,10 +5350,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="314638" cy="405432"/>
     <xdr:sp macro="" textlink="">
@@ -5369,7 +5369,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5410200" y="4600575"/>
+          <a:off x="2914650" y="5114925"/>
           <a:ext cx="314638" cy="405432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5420,6 +5420,707 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1954383-498F-DCD3-16D5-2F603F1129DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429374" y="3067050"/>
+          <a:ext cx="3362326" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>食費／日用品・衣服／交際費／交通費／水道・光熱費／美容／趣味／医療費／教育費／その他</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>初期値：食費</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>手入力なし</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1DBFD7-A255-4725-A98E-08AB7154E711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="2019301"/>
+          <a:ext cx="2333626" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>手入力なし　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>初期値：入力日の日付</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>過去入力あり</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>将来の入力あり</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE88224A-A05C-47E1-A534-3A6CA0B4B88E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7105650" y="4572000"/>
+          <a:ext cx="3305175" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>，なしで入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1000000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>円</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1619249" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A08A04DF-0030-4064-9608-7E2FDEDEEE4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3676650" y="5143500"/>
+          <a:ext cx="1619249" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>金額を入力してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314638" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B897F53-5402-471F-8EDB-E35763850D45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5438775" y="5114925"/>
+          <a:ext cx="314638" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="425822"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64BF7A57-920B-437A-9541-91A19211821B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2581275" y="4648200"/>
+          <a:ext cx="952500" cy="425822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（必須）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314638" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BE29AB-6008-46D3-9D3A-6416232F1E6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7343775" y="1085850"/>
+          <a:ext cx="314638" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="314638" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D171F3-6AE2-4AF3-AA0A-0EEEFE8633F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="1457325"/>
+          <a:ext cx="314638" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5428,9 +6129,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>147038</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23213</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5372100" cy="3148613"/>
     <xdr:pic>
@@ -5459,7 +6160,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="895350" y="3576038"/>
+          <a:off x="876300" y="4023713"/>
           <a:ext cx="5372100" cy="3148613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5474,7 +6175,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5362576" cy="3388766"/>
     <xdr:pic>
@@ -5503,7 +6204,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="904875" y="857250"/>
+          <a:off x="904875" y="847725"/>
           <a:ext cx="5362576" cy="3388766"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5984,10 +6685,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="609600" cy="376857"/>
     <xdr:sp macro="" textlink="">
@@ -6003,7 +6704,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2686050" y="4772024"/>
+          <a:off x="2809875" y="5324474"/>
           <a:ext cx="609600" cy="376857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6051,10 +6752,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="609600" cy="405432"/>
     <xdr:sp macro="" textlink="">
@@ -6070,7 +6771,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="4829175"/>
+          <a:off x="2257425" y="5657850"/>
           <a:ext cx="609600" cy="405432"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6116,6 +6817,803 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B828E5C4-293C-A01B-5B1B-467C990FB1D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391025" y="2952751"/>
+          <a:ext cx="2295525" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>初期値：１</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>24</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　月数入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1~6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>12,18,24</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>セレクトボックス</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCC0005F-1E28-4560-BEDE-A84C5C161FDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438649" y="2286000"/>
+          <a:ext cx="2333626" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>手入力なし　初期値：入力日の日付</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>過去入力なし（同月はできる）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>将来の入力は可能</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2BB1F19-C395-8509-660A-F532AE8FAF5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5114925" y="3686174"/>
+          <a:ext cx="3067050" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>初期値</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>家賃</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>家賃</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>保険</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>通信費</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>定期代</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>税金</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ローン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>その他　セレクトボックス 手入力なし</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE7C987-82E9-4197-899F-62DFE0061135}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5153025" y="4876799"/>
+          <a:ext cx="3305175" cy="533401"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>，なしで入力</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>～</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1000000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>円</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1619249" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8908B9EB-0071-CABB-74C3-E9CC889E991C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2952750" y="5400675"/>
+          <a:ext cx="1619249" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>金額を入力してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="609600" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435EACD6-559A-4891-B760-B202E2356BF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3676650" y="5648325"/>
+          <a:ext cx="609600" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068D0516-2154-7F77-83CA-A339E8957F25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="6143625"/>
+          <a:ext cx="2295525" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録エラーは結果表示画面に遷移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D1E8DFD-513A-5958-E05C-5C667605806C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="5381625"/>
+          <a:ext cx="1485900" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>金額が未入力の場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>42263</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="425822"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{471E4DCF-844C-4B4F-8229-1B625B84FC67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="4995263"/>
+          <a:ext cx="952500" cy="425822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（必須）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6126,7 +7624,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>261937</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>169069</xdr:rowOff>
+      <xdr:rowOff>130969</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5695181" cy="6238875"/>
     <xdr:pic>
@@ -6150,7 +7648,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000375" y="931069"/>
+          <a:off x="3024187" y="892969"/>
           <a:ext cx="5695181" cy="6238875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6530,16 +8028,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>59531</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>269081</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>35720</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>245270</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>83345</xdr:rowOff>
+      <xdr:rowOff>45245</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6554,8 +8052,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6905625" y="3048001"/>
-          <a:ext cx="523876" cy="273844"/>
+          <a:off x="6898481" y="3009901"/>
+          <a:ext cx="528639" cy="273844"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6603,15 +8101,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>92870</xdr:colOff>
+      <xdr:colOff>73820</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>188121</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>69058</xdr:colOff>
+      <xdr:colOff>50008</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>80965</xdr:rowOff>
+      <xdr:rowOff>52390</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6626,8 +8124,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7486651" y="3045621"/>
-          <a:ext cx="523876" cy="273844"/>
+          <a:off x="7531895" y="3028950"/>
+          <a:ext cx="528638" cy="261940"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6665,8 +8163,678 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>更新</a:t>
+            <a:t>削除</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14D9E25A-D719-4CA6-CC23-A8DD3895CAE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="3067049"/>
+          <a:ext cx="704850" cy="1038226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日付📅</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>初期値：</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>登録されているデータ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FBC1F5A-6E99-4494-A2C3-9954FAF4C257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="3048000"/>
+          <a:ext cx="1162050" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テキストボックス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>初期値：</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>登録されているデータ</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A6CB7ED-5F3C-47D2-8388-66FB32C719A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="3067049"/>
+          <a:ext cx="676275" cy="1400176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>セレクトボックス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>初期値：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録されているデータ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33743783-0F42-2B4E-7D62-FBA190D14DAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="504824" y="2619375"/>
+          <a:ext cx="3133726" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>検索前は当日以降のみ表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>過去のスケジュールは検索できる（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>年以内のみ）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>将来のスケジュールも検索可</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB8AFBD0-2CEB-A837-B938-E876B551642A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3362325" y="2333625"/>
+          <a:ext cx="2285999" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>検索したい日付を入力してください</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>259555</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>164306</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1331119" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7668C99-B008-4386-857D-6C7AC9C7D2B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3298030" y="2069306"/>
+          <a:ext cx="1331119" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（例）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2022/06/09</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D35B4982-9947-4123-8FB3-CFD5A541B61F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476249" y="3543300"/>
+          <a:ext cx="3133726" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スクロールしない状態は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>件表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の時は見出しのみ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>以下は件数に合わせる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7124,8 +9292,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2009775" y="4600575"/>
-          <a:ext cx="542925" cy="381000"/>
+          <a:off x="2009775" y="5095875"/>
+          <a:ext cx="542925" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7197,8 +9365,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3790950" y="4629150"/>
-          <a:ext cx="542925" cy="400050"/>
+          <a:off x="3790950" y="5143500"/>
+          <a:ext cx="542925" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7302,6 +9470,206 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A0FD7E6-ACE9-4431-85FF-E1217102C4BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972050" y="2438400"/>
+          <a:ext cx="2333626" cy="676275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>手入力なし</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>初期値：入力日翌日の日付</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>or</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>なし</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>過去入力なし</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98D8810-EE23-49E6-B392-B060EB5F5ECC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010149" y="3248025"/>
+          <a:ext cx="2590801" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>遊び／休み／デート／飲み会／旅行／支払期限／イベント／その他</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>初期値：遊び</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>手入力：なし</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8213,7 +10581,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6879770" y="1035733"/>
+          <a:off x="6879770" y="1150033"/>
           <a:ext cx="6312965" cy="5710792"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8273,16 +10641,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -8925,6 +11286,427 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DACEE51D-C2E6-404D-E4D8-9BE98E7CD360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4162425" y="4762500"/>
+          <a:ext cx="1476375" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>date</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>型</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAABC69C-2335-5960-217C-DB5B18FEA917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10620376" y="3362325"/>
+          <a:ext cx="838200" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>今月の</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB10933-CE09-4E44-97D2-417ED4628B67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400926" y="3371850"/>
+          <a:ext cx="838200" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>現在の</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29300A80-333A-4104-9042-7C26778465A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458076" y="4105275"/>
+          <a:ext cx="323849" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A44AEA8-7E99-466E-99D7-F0F3290136EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11982451" y="4810125"/>
+          <a:ext cx="323849" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>▽</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57BAFB28-402E-418A-895C-510EE6F441A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5391150" y="2457451"/>
+          <a:ext cx="2228850" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザ更新の初期値は現在の値</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14003,7 +16785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A082685F-6336-44D4-BDE6-A204FA804884}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -23356,13 +26138,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0372F4C3-06A1-4E0D-9251-9CF60541D04F}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="25" width="3.625" style="1"/>
+    <col min="1" max="20" width="3.625" style="1"/>
+    <col min="21" max="21" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="3.625" style="1"/>
     <col min="26" max="26" width="6.875" style="1" customWidth="1"/>
     <col min="27" max="16384" width="3.625" style="1"/>
   </cols>
@@ -26884,8 +29668,12 @@
       <c r="Q84" s="14"/>
       <c r="R84" s="16"/>
       <c r="S84" s="13"/>
-      <c r="T84" s="16"/>
-      <c r="U84" s="13"/>
+      <c r="T84" s="16">
+        <v>0</v>
+      </c>
+      <c r="U84" s="13">
+        <v>100</v>
+      </c>
       <c r="V84" s="16"/>
       <c r="W84" s="13"/>
       <c r="X84" s="14"/>
@@ -26936,8 +29724,12 @@
       <c r="Q85" s="14"/>
       <c r="R85" s="16"/>
       <c r="S85" s="13"/>
-      <c r="T85" s="16"/>
-      <c r="U85" s="13"/>
+      <c r="T85" s="16">
+        <v>0</v>
+      </c>
+      <c r="U85" s="13">
+        <v>1000000</v>
+      </c>
       <c r="V85" s="16"/>
       <c r="W85" s="13"/>
       <c r="X85" s="14"/>
@@ -28016,7 +30808,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF91466-A475-47F4-BB97-B5988D6FA63E}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -28706,7 +31498,6 @@
       <c r="AE17" s="18"/>
       <c r="AF17" s="18"/>
       <c r="AG17" s="18"/>
-      <c r="AH17" s="18"/>
       <c r="AI17" s="18"/>
       <c r="AJ17" s="18"/>
       <c r="AK17" s="18"/>
@@ -32628,7 +35419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9790EB81-1383-47B0-A5DD-9DEAF4994906}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -46514,7 +49305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33529FB8-22CE-4DF5-A02B-4FCF9BB85BA8}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>

--- a/doc/04_外部設計書_川崎.java.xlsx
+++ b/doc/04_外部設計書_川崎.java.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699615D4-09E6-4A68-9D2C-710A89A85B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E90464-1A3D-4266-AD2F-A708DB9AC743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="トップページ" sheetId="9" r:id="rId1"/>
@@ -5049,6 +5049,589 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8B6127-AAAD-CEE7-4D4A-0FDF73D57E79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581900" y="2352675"/>
+          <a:ext cx="733425" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を付ける</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AC1B0A7-5420-4D07-B57C-9C476CB2799B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6086476" y="2352675"/>
+          <a:ext cx="990600" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>YYYY/MM/DD</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3332E301-686B-30B7-43C7-AAB02FBF1855}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428875" y="3800475"/>
+          <a:ext cx="1428749" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>今月の残高</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D287FAD-4D99-C697-D299-593154F25060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590926" y="4238625"/>
+          <a:ext cx="3057524" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>目標金額</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>設定の月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>入力した月</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4EAF8A-78C4-4B11-B1C7-FBD1FEB900DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743326" y="3838575"/>
+          <a:ext cx="3057524" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>給料</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月の固定費</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月の変動費</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E13F2F7-144C-48FF-951F-0D74477DE369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705226" y="4733925"/>
+          <a:ext cx="3057524" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>今月の残高</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>貯金目安</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マイナスは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36651268-FD01-44D8-E5EF-201284BBC2E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="3533775"/>
+          <a:ext cx="1600200" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>残り</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>か月</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8180,8 +8763,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8197,7 +8780,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3657600" y="3067049"/>
-          <a:ext cx="704850" cy="1038226"/>
+          <a:ext cx="704850" cy="1571626"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8266,6 +8849,41 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>登録されているデータ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>表記法：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>YYYY/MM/DD</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -10635,7 +11253,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="305914" y="1059626"/>
+          <a:off x="305914" y="1173926"/>
           <a:ext cx="6317755" cy="4500251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11707,6 +12325,146 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E40AD802-20A4-5F33-E5DE-A928063E2DB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="5067300"/>
+          <a:ext cx="552450" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>📅</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B017AF6C-E67C-4645-8B04-54EF41848019}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162049" y="4295775"/>
+          <a:ext cx="1438275" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>したい月</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12033,7 +12791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51CCBD38-FD47-4D7B-9ED6-BF594D8B0C4B}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -16785,7 +17543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A082685F-6336-44D4-BDE6-A204FA804884}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -26138,7 +26896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0372F4C3-06A1-4E0D-9251-9CF60541D04F}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -35419,7 +36177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9790EB81-1383-47B0-A5DD-9DEAF4994906}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -44653,7 +45411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F63F82B-F744-4E0A-AE40-61E2326BC0C9}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -49305,7 +50063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33529FB8-22CE-4DF5-A02B-4FCF9BB85BA8}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>

--- a/doc/04_外部設計書_川崎.java.xlsx
+++ b/doc/04_外部設計書_川崎.java.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\E-3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2E0322-7B18-4416-B82A-806638E01397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E169FAE2-5F76-426F-B52B-9812D41D17A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="トップページ" sheetId="9" r:id="rId1"/>
@@ -3173,6 +3173,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3248,16 +3258,6 @@
     <xf numFmtId="56" fontId="9" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -13376,156 +13376,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43" t="s">
         <v>242</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="53" t="s">
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="47"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="51"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="48" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48" t="s">
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="49">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="53">
         <v>44719</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="50" t="s">
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="52"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="56"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43" t="s">
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="49"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -18118,7 +18118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A082685F-6336-44D4-BDE6-A204FA804884}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -18128,154 +18128,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="53" t="s">
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="47"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="51"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="48" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48" t="s">
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="49">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="53">
         <v>44719</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="50" t="s">
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="52"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="56"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="49"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -22810,7 +22810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CA8E5D-7F74-4652-948A-E72997F68D31}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S50" sqref="S50"/>
     </sheetView>
   </sheetViews>
@@ -22820,154 +22820,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="53" t="s">
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="47"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="51"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="48" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48" t="s">
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="49">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="53">
         <v>44719</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="50" t="s">
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="52"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="56"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="49"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -27471,7 +27471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0372F4C3-06A1-4E0D-9251-9CF60541D04F}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L86" sqref="L86"/>
     </sheetView>
   </sheetViews>
@@ -27485,154 +27485,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="53" t="s">
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="47"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="51"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="48" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48" t="s">
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="49">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="53">
         <v>44719</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="50" t="s">
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="52"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="56"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="49"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -32141,8 +32141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCF91466-A475-47F4-BB97-B5988D6FA63E}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD65" sqref="AD65"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -32151,152 +32151,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="53" t="s">
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="47"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="51"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="48" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48" t="s">
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="50" t="s">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="52"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="56"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="49"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -33942,7 +33942,7 @@
     </row>
     <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="30" t="s">
         <v>290</v>
       </c>
       <c r="C45" s="18"/>
@@ -34207,7 +34207,7 @@
     </row>
     <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
-      <c r="B55" s="56">
+      <c r="B55" s="31">
         <v>5</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -34237,7 +34237,7 @@
     </row>
     <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
-      <c r="B56" s="57"/>
+      <c r="B56" s="32"/>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
@@ -34410,7 +34410,7 @@
     </row>
     <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
-      <c r="B62" s="57"/>
+      <c r="B62" s="32"/>
       <c r="E62" s="18"/>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
@@ -34450,7 +34450,7 @@
     </row>
     <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
-      <c r="B63" s="57">
+      <c r="B63" s="32">
         <v>9</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -34495,7 +34495,7 @@
     </row>
     <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
-      <c r="B64" s="57"/>
+      <c r="B64" s="32"/>
       <c r="E64" s="18"/>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
@@ -34535,7 +34535,7 @@
     </row>
     <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
-      <c r="B65" s="57">
+      <c r="B65" s="32">
         <v>10</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -35578,7 +35578,7 @@
       <c r="C87" s="12">
         <v>9</v>
       </c>
-      <c r="D87" s="58" t="s">
+      <c r="D87" s="33" t="s">
         <v>308</v>
       </c>
       <c r="E87" s="14"/>
@@ -36598,154 +36598,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="53" t="s">
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="47"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="51"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="48" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48" t="s">
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="54">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="58">
         <v>44719</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="50" t="s">
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="52"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="56"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="49"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -41249,154 +41249,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43" t="s">
         <v>159</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="53" t="s">
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="47"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="51"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="48" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48" t="s">
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="49">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="53">
         <v>44719</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="50" t="s">
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="52"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="56"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="49"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -45820,7 +45820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F63F82B-F744-4E0A-AE40-61E2326BC0C9}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B28" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -45830,154 +45830,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="53" t="s">
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="47"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="51"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="48" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48" t="s">
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="49">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="53">
         <v>44719</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="50" t="s">
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="52"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="56"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="49"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -50472,8 +50472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33529FB8-22CE-4DF5-A02B-4FCF9BB85BA8}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -50482,154 +50482,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39" t="s">
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39" t="s">
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39" t="s">
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
-      <c r="AF1" s="53" t="s">
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="43"/>
+      <c r="AF1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="47"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="50"/>
+      <c r="AK1" s="50"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="50"/>
+      <c r="AN1" s="51"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="48" t="s">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48" t="s">
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48" t="s">
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="54">
+      <c r="X2" s="52"/>
+      <c r="Y2" s="58">
         <v>44719</v>
       </c>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="50" t="s">
+      <c r="Z2" s="52"/>
+      <c r="AA2" s="52"/>
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="52"/>
+      <c r="AD2" s="52"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="52"/>
+      <c r="AG2" s="54"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="56"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="40"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="41"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
+      <c r="W3" s="48"/>
+      <c r="X3" s="48"/>
+      <c r="Y3" s="48"/>
+      <c r="Z3" s="48"/>
+      <c r="AA3" s="48"/>
+      <c r="AB3" s="48"/>
+      <c r="AC3" s="48"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="48"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="49"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
